--- a/python-excel-how-objects-work-start.xlsx
+++ b/python-excel-how-objects-work-start.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D02C4-4CF6-4957-8702-26F3EA91B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D594F24-0974-4F62-A567-044D54ED3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5126D4A5-837A-4E20-A2E6-9D659AA5F7AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="formulas-objects" sheetId="1" r:id="rId1"/>
+    <sheet name="points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>player</t>
   </si>
@@ -59,58 +60,16 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
-    <t>Country of Birth</t>
-  </si>
-  <si>
-    <t>Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Malone</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Summerfield</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PA</t>
+    <t>Pick a number:</t>
+  </si>
+  <si>
+    <t>Multiply it by two:</t>
+  </si>
+  <si>
+    <t>Take the square root:</t>
+  </si>
+  <si>
+    <t>Add one for final answer:</t>
   </si>
 </sst>
 </file>
@@ -482,136 +441,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3CCDC4-FF77-464C-9B42-D2F988350D25}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
+    <col min="1" max="1" width="3.37109375" customWidth="1"/>
+    <col min="2" max="2" width="19.9140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.37109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="1.05">
+    <row r="2" spans="2:4" x14ac:dyDescent="1.05">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="1.05">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>C2 * 2</f>
+        <v>20</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C3)</f>
+        <v>=C2 * 2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="1.05">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f>SQRT(C3)</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C4)</f>
+        <v>=SQRT(C3)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="1.05">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>C4 + 1</f>
+        <v>5.4721359549995796</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C5)</f>
+        <v>=C4 + 1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088EE0A7-B86A-462D-8C30-9E3FD8EC12A9}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>38923</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>38387</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>36928</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>33643</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="1.05">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="1.05">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>32292</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
